--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3789.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3789.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.133149457805338</v>
+        <v>1.690722107887268</v>
       </c>
       <c r="B1">
-        <v>2.439247276525337</v>
+        <v>5.390152931213379</v>
       </c>
       <c r="C1">
-        <v>2.585861677915827</v>
+        <v>2.733572959899902</v>
       </c>
       <c r="D1">
-        <v>3.348616370083145</v>
+        <v>2.370488405227661</v>
       </c>
       <c r="E1">
-        <v>2.443310447979595</v>
+        <v>2.159883260726929</v>
       </c>
     </row>
   </sheetData>
